--- a/数据整理/stocks/A股/创业板/300696-爱乐达.xlsx
+++ b/数据整理/stocks/A股/创业板/300696-爱乐达.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>84.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>90.43</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.49</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.7824</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000977</t>
+          <t>010049</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>长城环保主题灵活配置混合</t>
+          <t>长城成长先锋混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>91.55</t>
+          <t>48.30</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.43</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>4</v>
+          <t>43.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2944</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -548,25 +578,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002542</t>
+          <t>000977</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>长城久鼎灵活配置混合</t>
+          <t>长城环保主题灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>90.94</t>
+          <t>20.15</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.24</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0941</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>4</v>
       </c>
     </row>
@@ -586,15 +626,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>10.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>94.19</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>5.47</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5815</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>9</v>
       </c>
     </row>
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>003717</t>
+          <t>002542</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中银量化精选灵活配置混合A</t>
+          <t>长城久鼎灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>90.96</t>
+          <t>10.42</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5460</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -642,15 +702,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>94.19</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>5.47</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1625</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>9</v>
       </c>
     </row>
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010484</t>
+          <t>010050</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中银量化精选灵活配置混合C</t>
+          <t>长城成长先锋混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>90.96</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
+          <t>43.82</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010049</t>
+          <t>003717</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>长城成长先锋混合A</t>
+          <t>中银量化精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>43.82</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.68</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>7</v>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,34 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>010050</t>
+          <t>010484</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>长城成长先锋混合C</t>
+          <t>中银量化精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>43.82</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.68</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>7</v>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -749,7 +847,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -770,15 +868,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -790,26 +898,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009694</t>
+          <t>001475</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华安安利混合</t>
+          <t>易方达国防军工混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>40.69</t>
+          <t>111.66</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.7518</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -828,15 +946,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>26.51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>85.79</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.14</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0975</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
     </row>
@@ -846,26 +974,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010050</t>
+          <t>000977</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>长城成长先锋混合C</t>
+          <t>长城环保主题灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>85.79</t>
+          <t>12.82</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>86.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6577</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -874,26 +1012,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000977</t>
+          <t>168501</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>长城环保主题灵活配置混合</t>
+          <t>北信瑞丰产业升级多策略混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>86.05</t>
+          <t>12.76</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.13</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6150</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -902,25 +1050,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001056</t>
+          <t>002983</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>北信瑞丰健康生活主题灵活配置混合</t>
+          <t>长信国防军工量化灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>84.29</t>
+          <t>8.91</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5355</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>6</v>
       </c>
     </row>
@@ -930,26 +1088,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001475</t>
+          <t>002542</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>易方达国防军工混合</t>
+          <t>长城久鼎灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.30</t>
+          <t>6.18</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
+          <t>87.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3071</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -968,15 +1136,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>85.99</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>3.35</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2677</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>9</v>
       </c>
     </row>
@@ -986,26 +1164,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002542</t>
+          <t>008960</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>长城久鼎灵活配置混合</t>
+          <t>长信国防军工量化灵活配置混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>87.20</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>5</v>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1785</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1014,26 +1202,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>168501</t>
+          <t>010050</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>北信瑞丰产业升级多策略混合</t>
+          <t>长城成长先锋混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>91.61</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>6</v>
+          <t>85.79</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0836</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1042,26 +1240,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>002703</t>
+          <t>001056</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>长城久源灵活配置混合</t>
+          <t>北信瑞丰健康生活主题灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>90.43</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>9</v>
+          <t>84.29</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0789</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1070,26 +1278,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>002983</t>
+          <t>002703</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>长信国防军工量化灵活配置混合A</t>
+          <t>长城久源灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>93.12</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>6.01</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>6</v>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -1098,26 +1316,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>008960</t>
+          <t>009694</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>长信国防军工量化灵活配置混合C</t>
+          <t>华安安利混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>93.12</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>6.01</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>6</v>
+          <t>40.69</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300696-爱乐达.xlsx
+++ b/数据整理/stocks/A股/创业板/300696-爱乐达.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1351,4 +1352,858 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010049</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2486</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>168501</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>北信瑞丰产业升级多策略混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6664</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000977</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长城环保主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6661</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>162720</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3713</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160143</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方创业板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.54</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>97.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3573</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002542</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长城久鼎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3328</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160425</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>96.26</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1568</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010050</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.34</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0963</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001056</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>北信瑞丰健康生活主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0917</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002703</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长城久源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0563</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>200010</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长城双动力混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.40</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006154</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安制造先锋混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007903</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.06</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002181</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安大安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.80</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010663</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001800</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华安新乐享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>24.64</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001905</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华安安益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>20.23</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001282</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华安新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>28.47</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010664</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005537</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>59.24</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005538</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>59.24</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300696-爱乐达.xlsx
+++ b/数据整理/stocks/A股/创业板/300696-爱乐达.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2206,4 +2207,1048 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002983</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9435</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000977</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长城环保主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5665</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010049</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5663</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501078</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.48</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4676</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>162720</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.44</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4573</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160143</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方创业板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>97.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4516</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008960</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4113</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011455</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长城竞争优势六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.08</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>32.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3781</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>168501</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>北信瑞丰产业升级多策略混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2837</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002542</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长城久鼎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2357</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160425</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>97.24</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2252</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002703</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长城久源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1188</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001056</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>北信瑞丰健康生活主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0944</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>540002</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇丰晋信龙腾混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>75.80</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0858</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010050</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0635</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009475</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇丰晋信慧盈混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>36.75</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002181</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华安大安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.09</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007903</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>82.70</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>200010</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长城双动力混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>540004</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇丰晋信2026周期混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>32.56</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011456</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长城竞争优势六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>32.24</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010663</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.40</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010664</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.40</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001866</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>北信瑞丰新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005104</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富荣福康混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005105</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富荣福康混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300696-爱乐达.xlsx
+++ b/数据整理/stocks/A股/创业板/300696-爱乐达.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3251,4 +3252,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>26</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.64</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300696-爱乐达.xlsx
+++ b/数据整理/stocks/A股/创业板/300696-爱乐达.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3260,7 +3261,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3271,17 +3272,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3291,14 +3312,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>26</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.64</v>
+          <t>005609</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国军工主题混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.6180</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -3307,14 +3350,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>21</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.25</v>
+          <t>010049</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>53.67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5940</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -3323,14 +3388,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.6</v>
+          <t>011216</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6975</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -3339,13 +3426,835 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>162720</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5026</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160143</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方创业板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.73</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4689</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011455</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长城竞争优势六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>75.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3892</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011113</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国军工主题混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3835</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000977</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长城环保主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3636</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>580009</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东吴多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2959</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160425</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1820</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002542</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长城久鼎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.76</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1560</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004845</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>71.38</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0942</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>460009</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0767</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011217</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010050</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011456</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长城竞争优势六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>75.53</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010663</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008300</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004846</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>71.38</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010664</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008301</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010246</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.970000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>26</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>21</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>9</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>7.53</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300696-爱乐达.xlsx
+++ b/数据整理/stocks/A股/创业板/300696-爱乐达.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4153,7 +4154,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4164,17 +4165,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4184,14 +4205,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>22</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.970000000000001</v>
+          <t>004224</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方军工改革灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>63.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.1757</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -4200,14 +4243,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>26</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.64</v>
+          <t>005609</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国军工主题混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>74.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.4590</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -4216,14 +4281,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>21</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.25</v>
+          <t>002983</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.74</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5055</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -4232,14 +4319,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>12</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7.6</v>
+          <t>011148</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方军工改革灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.56</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2713</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -4248,13 +4357,1535 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>008960</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7426</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>580009</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东吴多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5044</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160143</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方创业板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5020</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000690</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源大海洋战略经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4471</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519909</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安安顺灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4361</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011216</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.34</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4023</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>162720</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3880</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000977</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长城环保主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3727</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011113</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国军工主题混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3702</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014144</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长信先进装备三个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3579</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011455</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长城竞争优势六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.99</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>79.15</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3477</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000006</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>21.21</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2842</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010049</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2828</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010779</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.33</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.57</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2776</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014187</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>22.90</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2336</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002181</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华安大安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2174</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>160425</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华安创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>96.75</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1737</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002542</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长城久鼎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>81.60</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1440</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004845</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1235</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008786</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长城健康生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>78.57</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1138</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>240017</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华宝新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0991</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>460009</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0849</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002703</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长城久源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.80</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0802</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>014145</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长信先进装备三个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0774</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>240011</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华宝大盘精选混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0695</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>014188</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华夏量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011217</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>南方优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010780</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>87.57</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010050</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004926</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>200001</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长城久恒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011456</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>长城竞争优势六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>79.15</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011228</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004927</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009200</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华安金享混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>80.96</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>004846</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010246</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>41</v>
+      </c>
+      <c r="D2" t="n">
+        <v>19.84</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>22</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.970000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>26</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>21</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>9</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>7.53</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300696-爱乐达.xlsx
+++ b/数据整理/stocks/A股/创业板/300696-爱乐达.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5768,7 +5769,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5779,17 +5780,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5799,14 +5820,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>41</v>
-      </c>
-      <c r="D2" t="n">
-        <v>19.84</v>
+          <t>004224</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方军工改革灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>75.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.7684</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -5815,14 +5858,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>22</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.970000000000001</v>
+          <t>005609</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国军工主题混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.7412</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -5831,14 +5896,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>26</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.64</v>
+          <t>011148</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方军工改革灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8614</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -5847,14 +5934,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>21</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.25</v>
+          <t>002983</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27.32</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6010</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -5863,14 +5972,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>12</v>
-      </c>
-      <c r="D6" t="n">
-        <v>7.6</v>
+          <t>040015</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安动态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.94</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>78.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1149</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -5879,13 +6010,1703 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>008960</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.95</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9347</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010792</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8851</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>040001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安创新混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17.67</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>76.82</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8588</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014007</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安制造升级一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>15.77</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7869</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006154</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安制造先锋混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.71</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6773</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011113</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国军工主题混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.09</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5923</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014389</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安产业动力6个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4651</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519909</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安安顺灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.34</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.48</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4638</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160143</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方创业板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.75</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4536</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>162720</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4121</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000690</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>前海开源大海洋战略经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3869</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011216</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.62</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3430</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014144</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长信先进装备三个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2972</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>160425</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华安创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>97.38</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2949</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011949</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东吴多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.28</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2814</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010793</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2003</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013619</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华安动态灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>78.57</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1910</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003593</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国泰景气行业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1768</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>240017</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华宝新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>75.25</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1578</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>580009</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>东吴多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.28</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1261</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>240011</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华宝大盘精选混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1111</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013618</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华安大安全主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1091</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>014145</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长信先进装备三个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0804</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002160</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>南方转型驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0795</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002181</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华安大安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0728</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011217</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>南方优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>013507</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华安制造先锋混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>014390</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华安产业动力6个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>014008</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华安制造升级一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002703</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长城久源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004927</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>000788</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>前海开源中国成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002567</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>大成国家安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>66.96</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>003803</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华安新丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>29.58</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001397</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>建信精工制造指数增强</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>004926</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>003804</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华安新丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>29.58</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>519971</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>长信改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>014381</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>长城久源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>004212</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中融量化智选混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>004783</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中融量化智选混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>46</v>
+      </c>
+      <c r="D2" t="n">
+        <v>24.81</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>41</v>
+      </c>
+      <c r="D3" t="n">
+        <v>19.84</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>22</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.970000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>26</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.64</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>21</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>12</v>
+      </c>
+      <c r="D7" t="n">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>9</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>7.53</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300696-爱乐达.xlsx
+++ b/数据整理/stocks/A股/创业板/300696-爱乐达.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>24.81</v>
+        <v>4.59</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D3" t="n">
-        <v>19.84</v>
+        <v>24.81</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D4" t="n">
-        <v>9.970000000000001</v>
+        <v>19.84</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D5" t="n">
-        <v>5.64</v>
+        <v>9.970000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D6" t="n">
-        <v>4.25</v>
+        <v>5.64</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D7" t="n">
-        <v>7.6</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>12</v>
+      </c>
+      <c r="D8" t="n">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>9</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>7.53</v>
       </c>
     </row>
@@ -600,6 +617,744 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>040015</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安动态灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>77.56</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0703</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>040001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安创新混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>72.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7477</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014007</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安制造升级一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6204</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010792</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5706</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006154</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安制造先锋混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.65</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5314</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014389</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安产业动力6个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3422</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013619</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安动态灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>77.56</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2119</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010793</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1731</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160425</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1447</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014008</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安制造升级一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014390</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安产业动力6个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001675</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013507</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安制造先锋混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005083</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>诺德量化蓝筹增强混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004927</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>72.65</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001676</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004926</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>72.65</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005082</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>诺德量化蓝筹增强混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2403,7 +3158,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4017,7 +4772,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4909,7 +5664,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5953,7 +6708,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6807,7 +7562,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7319,7 +8074,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300696-爱乐达.xlsx
+++ b/数据整理/stocks/A股/创业板/300696-爱乐达.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>4.59</v>
+        <v>5.11</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>24.81</v>
+        <v>4.59</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D4" t="n">
-        <v>19.84</v>
+        <v>24.81</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D5" t="n">
-        <v>9.970000000000001</v>
+        <v>19.84</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D6" t="n">
-        <v>5.64</v>
+        <v>9.970000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D7" t="n">
-        <v>4.25</v>
+        <v>5.64</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D8" t="n">
-        <v>7.6</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>12</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>9</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>7.53</v>
       </c>
     </row>
@@ -616,7 +633,1065 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001475</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达国防军工混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>84.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.7824</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010049</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>48.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>43.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2944</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000977</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长城环保主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0941</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002983</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5815</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002542</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长城久鼎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5460</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008960</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1625</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010050</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>43.82</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003717</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010484</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>040015</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安动态灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2287</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>040001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安创新混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>74.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8535</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014007</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安制造升级一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.68</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6833</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010792</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.82</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6384</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006154</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安制造先锋混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.24</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6185</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014389</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安产业动力6个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3791</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013619</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安动态灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.57</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2302</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010793</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1900</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160425</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>97.00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1404</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014390</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安产业动力6个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014008</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安制造升级一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001675</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013507</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安制造先锋混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001676</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005083</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>诺德量化蓝筹增强混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005082</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>诺德量化蓝筹增强混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1354,7 +2429,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3158,7 +4233,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4772,7 +5847,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5664,7 +6739,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6708,7 +7783,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7562,7 +8637,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8072,400 +9147,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001475</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>易方达国防军工混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>84.24</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.43</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.49</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3.7824</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>010049</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>长城成长先锋混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>48.30</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>43.82</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.68</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.2944</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000977</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>长城环保主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>20.15</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.55</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.43</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.0941</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>002983</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>长信国防军工量化灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>10.63</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.19</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.47</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.5815</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>002542</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>长城久鼎灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>10.42</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.94</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.24</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.5460</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>008960</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>长信国防军工量化灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.19</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.47</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1625</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>010050</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>长城成长先锋混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>43.82</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.68</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0541</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>003717</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中银量化精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>90.96</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0136</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>010484</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>中银量化精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>90.96</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>